--- a/外链/json format/jsonlint.com/jsonlint.com-backlinks-subdomains-live-05-Feb-2021-中文.xlsx
+++ b/外链/json format/jsonlint.com/jsonlint.com-backlinks-subdomains-live-05-Feb-2021-中文.xlsx
@@ -1345,6 +1345,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,60 +1397,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,6 +1426,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1472,15 +1479,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1501,19 +1501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,13 +1513,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,31 +1585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,85 +1597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,19 +1615,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,11 +1695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,22 +1714,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1745,30 +1730,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1798,6 +1759,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1806,10 +1800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1818,137 +1812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1962,9 +1956,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2317,8 +2308,8 @@
   <sheetPr/>
   <dimension ref="A1:A149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="$A38:$XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2332,7 +2323,7 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2391,8 +2382,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="14" s="4" customFormat="1" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2411,8 +2402,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:1">
-      <c r="A18" s="5" t="s">
+    <row r="18" s="4" customFormat="1" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2431,13 +2422,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:1">
-      <c r="A22" s="5" t="s">
+    <row r="22" s="4" customFormat="1" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:1">
-      <c r="A23" s="5" t="s">
+    <row r="23" s="4" customFormat="1" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2451,8 +2442,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:1">
-      <c r="A26" s="5" t="s">
+    <row r="26" s="4" customFormat="1" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2471,8 +2462,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:1">
-      <c r="A30" s="5" t="s">
+    <row r="30" s="4" customFormat="1" spans="1:1">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2491,8 +2482,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:1">
-      <c r="A34" s="5" t="s">
+    <row r="34" s="4" customFormat="1" spans="1:1">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2506,143 +2497,143 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" spans="1:1">
-      <c r="A37" s="5" t="s">
+    <row r="37" s="4" customFormat="1" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="1" spans="1:1">
-      <c r="A38" s="5" t="s">
+    <row r="38" s="4" customFormat="1" spans="1:1">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" s="3" customFormat="1" spans="1:1">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" s="3" customFormat="1" spans="1:1">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" s="4" customFormat="1" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" s="4" customFormat="1" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" s="3" customFormat="1" spans="1:1">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" s="3" customFormat="1" spans="1:1">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" s="3" customFormat="1" spans="1:1">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" s="4" customFormat="1" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" s="4" customFormat="1" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" s="3" customFormat="1" spans="1:1">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" s="3" customFormat="1" spans="1:1">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" s="3" customFormat="1" spans="1:1">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="51" s="3" customFormat="1" spans="1:1">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" s="4" customFormat="1" spans="1:1">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" s="3" customFormat="1" spans="1:1">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="54" s="3" customFormat="1" spans="1:1">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" s="3" customFormat="1" spans="1:1">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" s="3" customFormat="1" spans="1:1">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" s="3" customFormat="1" spans="1:1">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="58" s="3" customFormat="1" spans="1:1">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" s="3" customFormat="1" spans="1:1">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="60" s="4" customFormat="1" spans="1:1">
+      <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" s="3" customFormat="1" spans="1:1">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" s="3" customFormat="1" spans="1:1">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" s="3" customFormat="1" spans="1:1">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" s="4" customFormat="1" spans="1:1">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>

--- a/外链/json format/jsonlint.com/jsonlint.com-backlinks-subdomains-live-05-Feb-2021-中文.xlsx
+++ b/外链/json format/jsonlint.com/jsonlint.com-backlinks-subdomains-live-05-Feb-2021-中文.xlsx
@@ -1322,52 +1322,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1381,9 +1344,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,52 +1373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,7 +1389,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1472,9 +1434,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,7 +1501,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,7 +1621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,19 +1633,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,133 +1675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,25 +1696,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,11 +1727,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1759,39 +1792,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1800,10 +1800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1812,133 +1812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2309,7 +2309,7 @@
   <dimension ref="A1:A149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/外链/json format/jsonlint.com/jsonlint.com-backlinks-subdomains-live-05-Feb-2021-中文.xlsx
+++ b/外链/json format/jsonlint.com/jsonlint.com-backlinks-subdomains-live-05-Feb-2021-中文.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="过滤重复" sheetId="2" r:id="rId1"/>
@@ -1322,10 +1322,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1336,23 +1336,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,8 +1380,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,9 +1412,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,14 +1449,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1419,38 +1457,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1460,21 +1474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,19 +1501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,7 +1537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,37 +1573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,31 +1585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,25 +1621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,25 +1657,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,17 +1695,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,11 +1745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,28 +1763,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,17 +1784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1800,10 +1800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1812,133 +1812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2308,8 +2308,8 @@
   <sheetPr/>
   <dimension ref="A1:A149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2637,63 +2637,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" s="3" customFormat="1" spans="1:1">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" s="3" customFormat="1" spans="1:1">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" s="3" customFormat="1" spans="1:1">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" s="3" customFormat="1" spans="1:1">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" s="3" customFormat="1" spans="1:1">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" s="3" customFormat="1" spans="1:1">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" s="3" customFormat="1" spans="1:1">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" s="4" customFormat="1" spans="1:1">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" s="3" customFormat="1" spans="1:1">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" s="3" customFormat="1" spans="1:1">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="75" s="3" customFormat="1" spans="1:1">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" s="4" customFormat="1" spans="1:1">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
     </row>
